--- a/people_reports/Enterprise_16.xlsx
+++ b/people_reports/Enterprise_16.xlsx
@@ -484,8 +484,16 @@
           <t>Micah Hubbard</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Headshots/H/Hubbard_Micah_UMA_President_Staff_2022_002</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>hubbard-micah-0000</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -504,8 +512,16 @@
           <t>Stephanie Kozelek</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Headshots/P/p_placeholder</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>kozelek-stephanie-0000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
